--- a/新建文件夹/xa-liuchong.xlsx
+++ b/新建文件夹/xa-liuchong.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,6 +105,46 @@
   </si>
   <si>
     <t>首页~特效什么的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车的登录和注册和二级优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺利完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面不完善，使其工作量加大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循序渐进，不能急，做好每一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体整合优化难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艰难在完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需在学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队合作很重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,14 +550,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -588,21 +628,41 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
